--- a/STTR_Caisis_Master Data Dictionary_06022018.xlsx
+++ b/STTR_Caisis_Master Data Dictionary_06022018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10610"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apaguirigan/Documents/GitHubRepos/sttr-tgdcc-caisis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kcolevas/Documents/GitHub/sttr-tgdcc-caisis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F4B38983-7851-5A42-A690-DADA5A9BEC7F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3DB968-537B-D541-A079-B50A24DF1016}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="3680" windowWidth="37180" windowHeight="21200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3781" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3784" uniqueCount="793">
   <si>
     <t>Table</t>
   </si>
@@ -2440,12 +2440,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2453,11 +2455,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2466,18 +2470,21 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2509,6 +2516,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3204,8 +3212,8 @@
   <dimension ref="A1:Q481"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P129" sqref="P129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7179,6 +7187,9 @@
       <c r="I127" s="15" t="s">
         <v>365</v>
       </c>
+      <c r="P127" s="15" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="21" t="s">
@@ -7203,6 +7214,9 @@
       <c r="I128" s="15" t="s">
         <v>365</v>
       </c>
+      <c r="P128" s="15" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="21" t="s">
@@ -7225,6 +7239,9 @@
       </c>
       <c r="H129" s="15"/>
       <c r="I129" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="P129" s="15" t="s">
         <v>365</v>
       </c>
     </row>
